--- a/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21324</v>
+        <v>23253</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02395410264268539</v>
+        <v>0.0239541026426854</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1158796438192194</v>
+        <v>0.1263644370132562</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6120</v>
+        <v>6495</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.006856370874374193</v>
+        <v>0.006856370874374192</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03377413365712226</v>
+        <v>0.03584570265408953</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1018,19 +1018,19 @@
         <v>5650</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24943</v>
+        <v>24608</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01547136536104013</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00325779618049659</v>
+        <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06829757934012026</v>
+        <v>0.0673794100325239</v>
       </c>
     </row>
     <row r="10">
@@ -1047,19 +1047,19 @@
         <v>9732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26401</v>
+        <v>27513</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05288404324739548</v>
+        <v>0.05288404324739549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009591518648460541</v>
+        <v>0.009642930731493367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1434674889854549</v>
+        <v>0.1495104593693634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1068,19 +1068,19 @@
         <v>10816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3351</v>
+        <v>3656</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24158</v>
+        <v>23496</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0596905139795684</v>
+        <v>0.05969051397956839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01849464614762008</v>
+        <v>0.02017525655693686</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1333283869091539</v>
+        <v>0.1296729678691565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1089,19 +1089,19 @@
         <v>20547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8094</v>
+        <v>9455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41048</v>
+        <v>40956</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05626095334392893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02216262818795603</v>
+        <v>0.02588921058622728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1123957135702602</v>
+        <v>0.1121436000710267</v>
       </c>
     </row>
     <row r="11">
@@ -1165,19 +1165,19 @@
         <v>13322</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4940</v>
+        <v>3673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33172</v>
+        <v>30832</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07239375967224032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02684389991725534</v>
+        <v>0.01995842950061826</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1802664397888094</v>
+        <v>0.1675478039342627</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1186,19 +1186,19 @@
         <v>5239</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1160</v>
+        <v>1190</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16634</v>
+        <v>15008</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02891225865138504</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006404553073888715</v>
+        <v>0.006568333589158802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09180437194468895</v>
+        <v>0.08282829569774655</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1207,19 +1207,19 @@
         <v>18561</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7284</v>
+        <v>8346</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35350</v>
+        <v>34751</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05082118181398228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01994471187850422</v>
+        <v>0.02285184065928134</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09679215683879638</v>
+        <v>0.09515361081624868</v>
       </c>
     </row>
     <row r="13">
@@ -1236,19 +1236,19 @@
         <v>20615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11296</v>
+        <v>11824</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35031</v>
+        <v>36600</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1120261408437377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06138732478069382</v>
+        <v>0.06425286315787544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1903674878227669</v>
+        <v>0.1988924340224791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1257,19 +1257,19 @@
         <v>30978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19904</v>
+        <v>20048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46195</v>
+        <v>46565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1709689066119607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1098522131480107</v>
+        <v>0.1106426959974153</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2549466859028292</v>
+        <v>0.2569927373223812</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1278,19 +1278,19 @@
         <v>51593</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35501</v>
+        <v>36374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72254</v>
+        <v>71766</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1412695518084645</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09720667332021964</v>
+        <v>0.0995975177022803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1978425896674369</v>
+        <v>0.1965063727222666</v>
       </c>
     </row>
     <row r="14">
@@ -1307,19 +1307,19 @@
         <v>135942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112841</v>
+        <v>113675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151644</v>
+        <v>152748</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.738741953593941</v>
+        <v>0.7387419535939411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.61320360255467</v>
+        <v>0.6177381287604329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8240695323305632</v>
+        <v>0.8300721415702524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -1328,19 +1328,19 @@
         <v>132918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116296</v>
+        <v>116033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148221</v>
+        <v>148291</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7335719498827116</v>
+        <v>0.7335719498827115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6418328825664097</v>
+        <v>0.6403836166277291</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8180294210195216</v>
+        <v>0.8184121531836541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>133</v>
@@ -1349,19 +1349,19 @@
         <v>268861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>243879</v>
+        <v>244420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>291937</v>
+        <v>293124</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7361769476725841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6677729964069828</v>
+        <v>0.669254389000434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7993642043999639</v>
+        <v>0.802612941626731</v>
       </c>
     </row>
     <row r="15">
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7997</v>
+        <v>6398</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006466087531747532</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0357305912359176</v>
+        <v>0.02858719481788248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7416</v>
+        <v>7403</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003289292274423899</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01685534511313141</v>
+        <v>0.01682508586196141</v>
       </c>
     </row>
     <row r="17">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11056</v>
+        <v>11547</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01083633196300433</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05114841143348133</v>
+        <v>0.05342038453010566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6131</v>
+        <v>6263</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008229615867549405</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02739134277543505</v>
+        <v>0.02798434105655206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>4184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>761</v>
+        <v>1054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13745</v>
+        <v>13149</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009510298086676796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001730438973748716</v>
+        <v>0.002396169945768814</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03124163045567475</v>
+        <v>0.02988547206466498</v>
       </c>
     </row>
     <row r="18">
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8376</v>
+        <v>9249</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007600083480571123</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03875020520718105</v>
+        <v>0.04278667577550245</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6111</v>
+        <v>6317</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005349332560002208</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02730354785471062</v>
+        <v>0.0282252445994835</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1632,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9702</v>
+        <v>9987</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.006455128733464729</v>
+        <v>0.006455128733464728</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02205139876300509</v>
+        <v>0.02269889749795841</v>
       </c>
     </row>
     <row r="19">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6090</v>
+        <v>5178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004850847503839123</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02720870368820311</v>
+        <v>0.02313688723301739</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5577</v>
+        <v>6101</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002467621284191653</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01267478409750014</v>
+        <v>0.01386648982640003</v>
       </c>
     </row>
     <row r="20">
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11067</v>
+        <v>10639</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00955080870250897</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0511994438772023</v>
+        <v>0.0492176010578238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9218</v>
+        <v>9281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01120361924958484</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04118512474449986</v>
+        <v>0.04146829159106338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1763,19 +1763,19 @@
         <v>4572</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14034</v>
+        <v>14474</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01039159177834737</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00199299208735415</v>
+        <v>0.001937774737490651</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03189739173027809</v>
+        <v>0.03289837186585766</v>
       </c>
     </row>
     <row r="21">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8351</v>
+        <v>9148</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007504994425914927</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03863527235598137</v>
+        <v>0.04231919972301774</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5347</v>
+        <v>5472</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004766507583442787</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02388976738216429</v>
+        <v>0.02444725383151398</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9258</v>
+        <v>8934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006111928902083287</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02104108764486029</v>
+        <v>0.020306008187833</v>
       </c>
     </row>
     <row r="22">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13263</v>
+        <v>15221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01254381836301548</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0613580218078385</v>
+        <v>0.07041560688354655</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1884,19 +1884,19 @@
         <v>6407</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1842</v>
+        <v>1705</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16854</v>
+        <v>15558</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02862447217856143</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008229348845085341</v>
+        <v>0.007616375816828383</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07530531939582188</v>
+        <v>0.06951464090088644</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -1905,19 +1905,19 @@
         <v>9118</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2889</v>
+        <v>3619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22215</v>
+        <v>22242</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02072403091093707</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006566249620809929</v>
+        <v>0.008226099942231602</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05049204085448836</v>
+        <v>0.05055215787801951</v>
       </c>
     </row>
     <row r="23">
@@ -1934,19 +1934,19 @@
         <v>6565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1035</v>
+        <v>1090</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20517</v>
+        <v>20047</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03036893107381214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004790294501755286</v>
+        <v>0.005043058535001757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0949155433655718</v>
+        <v>0.09274291038166876</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>2577</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7711</v>
+        <v>7045</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01151394773916981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003344934835606602</v>
+        <v>0.003366504688349193</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03445253703639222</v>
+        <v>0.03147774257296015</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -1976,19 +1976,19 @@
         <v>9142</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3510</v>
+        <v>2873</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24370</v>
+        <v>21859</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02077741986823016</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007978766672402863</v>
+        <v>0.006530507985146956</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05538977630361318</v>
+        <v>0.04968225363722916</v>
       </c>
     </row>
     <row r="24">
@@ -2005,19 +2005,19 @@
         <v>24773</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14426</v>
+        <v>13514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40674</v>
+        <v>42580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1146055517075112</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06673714106141969</v>
+        <v>0.06251943313143273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1881664835647523</v>
+        <v>0.196982837443674</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -2026,19 +2026,19 @@
         <v>9649</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4720</v>
+        <v>4512</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17393</v>
+        <v>18086</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04310964760644379</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02108727753778808</v>
+        <v>0.02015935140626129</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07771223105308185</v>
+        <v>0.08080597842752317</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -2047,19 +2047,19 @@
         <v>34422</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21274</v>
+        <v>22003</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51606</v>
+        <v>54309</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07823565664222812</v>
+        <v>0.0782356566422281</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04835375790796222</v>
+        <v>0.05000916123258541</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1172933828617015</v>
+        <v>0.1234362623280666</v>
       </c>
     </row>
     <row r="25">
@@ -2076,19 +2076,19 @@
         <v>24558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14928</v>
+        <v>15562</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35743</v>
+        <v>37305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1136096881421089</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06905892071063648</v>
+        <v>0.07199290782891182</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1653528249333352</v>
+        <v>0.1725818406683626</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2097,19 +2097,19 @@
         <v>22845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15324</v>
+        <v>14891</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32745</v>
+        <v>33614</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1020694854834108</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06846615880344611</v>
+        <v>0.06653500807178628</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1463050758170413</v>
+        <v>0.150188668987852</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -2118,19 +2118,19 @@
         <v>47402</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35714</v>
+        <v>35248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62292</v>
+        <v>62917</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1077391985664315</v>
+        <v>0.1077391985664314</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0811732787088227</v>
+        <v>0.08011434052074358</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1415821726892551</v>
+        <v>0.1430018358053595</v>
       </c>
     </row>
     <row r="26">
@@ -2147,19 +2147,19 @@
         <v>149880</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131094</v>
+        <v>129940</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167531</v>
+        <v>167490</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.693379792141553</v>
+        <v>0.6933797921415529</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6064722186954962</v>
+        <v>0.6011333427539627</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7750364156795775</v>
+        <v>0.7748471225430629</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>160</v>
@@ -2168,19 +2168,19 @@
         <v>173191</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>159917</v>
+        <v>158793</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>185121</v>
+        <v>185252</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7738164366962483</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7145078291981651</v>
+        <v>0.7094883857367358</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8271184351392481</v>
+        <v>0.8277037148297325</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>252</v>
@@ -2189,19 +2189,19 @@
         <v>323071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>295228</v>
+        <v>298898</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>342006</v>
+        <v>342987</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7342978329529856</v>
+        <v>0.7342978329529855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6710133714812345</v>
+        <v>0.6793546636247938</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7773345179992264</v>
+        <v>0.779563703235475</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>6782</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2047</v>
+        <v>2517</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14888</v>
+        <v>16166</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02007331752884777</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006059779633400908</v>
+        <v>0.007448493353245018</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04406456749092079</v>
+        <v>0.04784755762508592</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5984</v>
+        <v>5751</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005324961266433034</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02035868255546482</v>
+        <v>0.019566391581653</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2335,19 +2335,19 @@
         <v>8347</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3382</v>
+        <v>3575</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17545</v>
+        <v>17573</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01321220926284027</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005353114542119351</v>
+        <v>0.00565928068752369</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02777019804837018</v>
+        <v>0.02781461388132359</v>
       </c>
     </row>
     <row r="29">
@@ -2364,19 +2364,19 @@
         <v>3267</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9300</v>
+        <v>9124</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0096690918034087</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002785766137375187</v>
+        <v>0.00275700190493855</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02752608983871899</v>
+        <v>0.02700259387111646</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2385,19 +2385,19 @@
         <v>2958</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6743</v>
+        <v>6855</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01006405680680407</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002543820780441692</v>
+        <v>0.002560228562399172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02294059435012493</v>
+        <v>0.02332333275481167</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2406,19 +2406,19 @@
         <v>6225</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2894</v>
+        <v>2441</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12855</v>
+        <v>12806</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009852834154173961</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004581316722234494</v>
+        <v>0.00386311618814922</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02034714288966897</v>
+        <v>0.0202700425706765</v>
       </c>
     </row>
     <row r="30">
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6415</v>
+        <v>5646</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.003308439213542284</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01898552080604226</v>
+        <v>0.01671081509488047</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5663</v>
+        <v>6941</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001769314498100827</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008962991022841838</v>
+        <v>0.01098696272075328</v>
       </c>
     </row>
     <row r="31">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4085</v>
+        <v>4111</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002753256210532309</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01389874087030023</v>
+        <v>0.01398785174763257</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5420</v>
+        <v>3281</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001280847072609758</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.00857868034355588</v>
+        <v>0.005193508698298053</v>
       </c>
     </row>
     <row r="32">
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6836</v>
+        <v>7149</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005794842174974286</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02023176720896823</v>
+        <v>0.02115945925767331</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2582,19 +2582,19 @@
         <v>4196</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1594</v>
+        <v>1502</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9211</v>
+        <v>8888</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01427474435372552</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005423612112914428</v>
+        <v>0.005109611028005242</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03133811813233946</v>
+        <v>0.03023844551550788</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2603,19 +2603,19 @@
         <v>6154</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2836</v>
+        <v>2501</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12193</v>
+        <v>12697</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0097397921001288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004488809384394662</v>
+        <v>0.003959227401074926</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01929838382315813</v>
+        <v>0.02009716458227004</v>
       </c>
     </row>
     <row r="33">
@@ -2632,19 +2632,19 @@
         <v>3642</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>9993</v>
+        <v>10189</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01077954707408136</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00328341964083656</v>
+        <v>0.003298435175398318</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02957640763257426</v>
+        <v>0.03015727582886743</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2656,16 +2656,16 @@
         <v>746</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7714</v>
+        <v>6926</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01047531041047636</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.002536509800813629</v>
+        <v>0.002537066166485697</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02624468932867742</v>
+        <v>0.02356430333358837</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -2674,19 +2674,19 @@
         <v>6721</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2576</v>
+        <v>2987</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>12925</v>
+        <v>13344</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.01063801261082715</v>
+        <v>0.01063801261082714</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004078024785662293</v>
+        <v>0.004727967544427981</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02045771732545279</v>
+        <v>0.02112107572861395</v>
       </c>
     </row>
     <row r="34">
@@ -2703,19 +2703,19 @@
         <v>3886</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9710</v>
+        <v>9717</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01150106632772255</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002785292230057873</v>
+        <v>0.002731952563327482</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02873955524630316</v>
+        <v>0.028757820299054</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -2724,19 +2724,19 @@
         <v>9334</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5112</v>
+        <v>4663</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16031</v>
+        <v>15204</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03175620946737732</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01739292504575452</v>
+        <v>0.01586516120338089</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0545432442898138</v>
+        <v>0.05172974805471871</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -2745,19 +2745,19 @@
         <v>13220</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7555</v>
+        <v>7403</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20355</v>
+        <v>21384</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02092399641918052</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01195872877208455</v>
+        <v>0.01171716148453863</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03221841036727429</v>
+        <v>0.03384633183222698</v>
       </c>
     </row>
     <row r="35">
@@ -2774,19 +2774,19 @@
         <v>9251</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3585</v>
+        <v>3665</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19407</v>
+        <v>19148</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02737886483405068</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01061075532249593</v>
+        <v>0.01084853683314886</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05743801705222251</v>
+        <v>0.05667079030456132</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>2125</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6209</v>
+        <v>6172</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007229073193064774</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00187807593586949</v>
+        <v>0.001910608083474406</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02112378657038399</v>
+        <v>0.02099924700080427</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2816,19 +2816,19 @@
         <v>11375</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5418</v>
+        <v>5967</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23483</v>
+        <v>22685</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01800494549507875</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00857559752775728</v>
+        <v>0.009443884332582619</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03716861778206706</v>
+        <v>0.03590533262904024</v>
       </c>
     </row>
     <row r="36">
@@ -2845,19 +2845,19 @@
         <v>20690</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12749</v>
+        <v>12363</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32867</v>
+        <v>32862</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.06123692621526775</v>
+        <v>0.06123692621526776</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03773298207217037</v>
+        <v>0.03659131297679127</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09727446157219644</v>
+        <v>0.09726150870960774</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -2866,19 +2866,19 @@
         <v>20119</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13420</v>
+        <v>12991</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>27836</v>
+        <v>28185</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06844969822028704</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04565886455081144</v>
+        <v>0.04419790267108327</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09470600253306648</v>
+        <v>0.09589581271501726</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -2887,19 +2887,19 @@
         <v>40809</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>29058</v>
+        <v>30509</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>55555</v>
+        <v>56895</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06459239232579164</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04599310139640607</v>
+        <v>0.04828959913343683</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0879322051937331</v>
+        <v>0.09005420264144806</v>
       </c>
     </row>
     <row r="37">
@@ -2916,19 +2916,19 @@
         <v>38752</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>27649</v>
+        <v>29110</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>50739</v>
+        <v>52411</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1146923840231452</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08183254249102045</v>
+        <v>0.08615665904959641</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1501720394254575</v>
+        <v>0.155120345948517</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>50</v>
@@ -2937,19 +2937,19 @@
         <v>30963</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22821</v>
+        <v>22809</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39238</v>
+        <v>39265</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1053454096636601</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07764269002361614</v>
+        <v>0.07760249503092223</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1334989609725836</v>
+        <v>0.1335915812381536</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>90</v>
@@ -2958,19 +2958,19 @@
         <v>69714</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>55688</v>
+        <v>55519</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>86544</v>
+        <v>84674</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1103440619526067</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08814235980911928</v>
+        <v>0.08787606400585059</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1369820505396724</v>
+        <v>0.134022495972602</v>
       </c>
     </row>
     <row r="38">
@@ -2987,19 +2987,19 @@
         <v>248529</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>228803</v>
+        <v>229451</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>265001</v>
+        <v>263025</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7355655208049594</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.677180955627915</v>
+        <v>0.6790993356679141</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7843161392858258</v>
+        <v>0.7784669778760093</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>302</v>
@@ -3008,19 +3008,19 @@
         <v>218770</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>206717</v>
+        <v>204808</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>231583</v>
+        <v>230538</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7443272804076394</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7033170632173654</v>
+        <v>0.6968230149401292</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7879181853310609</v>
+        <v>0.7843645964337879</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>519</v>
@@ -3029,19 +3029,19 @@
         <v>467299</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>445215</v>
+        <v>444561</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>488881</v>
+        <v>486894</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7396415941086617</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7046870477505941</v>
+        <v>0.7036517287325785</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7738018386935643</v>
+        <v>0.7706563817434958</v>
       </c>
     </row>
     <row r="39">
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6503</v>
+        <v>5618</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003213432788583705</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01851063020795134</v>
+        <v>0.01599314702992725</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3154,19 +3154,19 @@
         <v>2604</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6325</v>
+        <v>5905</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007356554802956414</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001989966981506159</v>
+        <v>0.001999181603865565</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01786781080916049</v>
+        <v>0.01668002559288252</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -3175,19 +3175,19 @@
         <v>3733</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1192</v>
+        <v>1387</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8606</v>
+        <v>8253</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.005292966224849364</v>
+        <v>0.005292966224849365</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001689632843059881</v>
+        <v>0.001966176294353747</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01220159646249214</v>
+        <v>0.01170084435867032</v>
       </c>
     </row>
     <row r="41">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8228</v>
+        <v>7025</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00656604001527481</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02342164424788454</v>
+        <v>0.01999771176903983</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3225,19 +3225,19 @@
         <v>2854</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7192</v>
+        <v>6889</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.008060897532395042</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002033021439272384</v>
+        <v>0.002008238585802113</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02031707188504151</v>
+        <v>0.01945912548163246</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -3246,19 +3246,19 @@
         <v>5160</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2140</v>
+        <v>2111</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>11344</v>
+        <v>11612</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007316345262989135</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003033599050092281</v>
+        <v>0.002993503869834059</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01608459920757918</v>
+        <v>0.01646336713096226</v>
       </c>
     </row>
     <row r="42">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6039</v>
+        <v>5951</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.003383300260534047</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01719016533267211</v>
+        <v>0.01693927237195618</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3485</v>
+        <v>3467</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.00195497268514707</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.009844743903118134</v>
+        <v>0.009793491797894124</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>7855</v>
+        <v>7463</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.002666388004352957</v>
+        <v>0.002666388004352958</v>
       </c>
       <c r="V42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01113692259020968</v>
+        <v>0.01058091812947256</v>
       </c>
     </row>
     <row r="43">
@@ -3393,19 +3393,19 @@
         <v>5603</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2009</v>
+        <v>2181</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>12884</v>
+        <v>12620</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01594837066388779</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.005719446884383928</v>
+        <v>0.006209271287799738</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03667504550682182</v>
+        <v>0.0359237875879083</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -3414,19 +3414,19 @@
         <v>3675</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1195</v>
+        <v>1367</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>7493</v>
+        <v>7734</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01038008321701456</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003374678797086788</v>
+        <v>0.003861909380885817</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02116603717036051</v>
+        <v>0.02184575120481295</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>11</v>
@@ -3435,19 +3435,19 @@
         <v>9277</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4861</v>
+        <v>4822</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16853</v>
+        <v>16992</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01315351212765797</v>
+        <v>0.01315351212765798</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006891433056013503</v>
+        <v>0.006836363889894147</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02389427169482574</v>
+        <v>0.02409198876632232</v>
       </c>
     </row>
     <row r="45">
@@ -3464,19 +3464,19 @@
         <v>3706</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>9137</v>
+        <v>9207</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01054981023763141</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.002590789755225941</v>
+        <v>0.002609124291495056</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02600977286980501</v>
+        <v>0.02620788638645683</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>3737</v>
+        <v>3548</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.002002061754280406</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01055614536589</v>
+        <v>0.01002269585732505</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>5</v>
@@ -3506,19 +3506,19 @@
         <v>4415</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1718</v>
+        <v>1606</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>9973</v>
+        <v>9902</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.00625948793617518</v>
+        <v>0.006259487936175181</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.002436300558469286</v>
+        <v>0.002277537447247679</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01414064544935723</v>
+        <v>0.01403946272814737</v>
       </c>
     </row>
     <row r="46">
@@ -3535,19 +3535,19 @@
         <v>6933</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2701</v>
+        <v>2881</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>14083</v>
+        <v>14619</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01973424042946012</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007688495493513126</v>
+        <v>0.008202299044508931</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04008945934110901</v>
+        <v>0.04161503171329604</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>12</v>
@@ -3556,19 +3556,19 @@
         <v>8810</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4676</v>
+        <v>4866</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14982</v>
+        <v>15191</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.02488758675442898</v>
+        <v>0.02488758675442899</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01320943942186889</v>
+        <v>0.01374615599307741</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04232137596323559</v>
+        <v>0.04291071793971395</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>18</v>
@@ -3577,19 +3577,19 @@
         <v>15743</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9976</v>
+        <v>8689</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>25970</v>
+        <v>23695</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02232082995162558</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01414482316280356</v>
+        <v>0.01231961533147893</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03682174613196428</v>
+        <v>0.03359564364894773</v>
       </c>
     </row>
     <row r="47">
@@ -3606,19 +3606,19 @@
         <v>9481</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4902</v>
+        <v>4917</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>16810</v>
+        <v>17010</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02698746761776103</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01395392633324972</v>
+        <v>0.01399557193099634</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04785298986792896</v>
+        <v>0.04842098361154412</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>8</v>
@@ -3627,19 +3627,19 @@
         <v>4994</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2309</v>
+        <v>2110</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9785</v>
+        <v>9330</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01410810146186312</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.006521817727045434</v>
+        <v>0.005961530392259365</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02763984787922906</v>
+        <v>0.0263558594997142</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>18</v>
@@ -3648,19 +3648,19 @@
         <v>14475</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>8842</v>
+        <v>8872</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>22984</v>
+        <v>22885</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.02052300133697419</v>
+        <v>0.0205230013369742</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01253681907366097</v>
+        <v>0.01257898328613555</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03258687558997023</v>
+        <v>0.0324468116029264</v>
       </c>
     </row>
     <row r="48">
@@ -3677,19 +3677,19 @@
         <v>12485</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6130</v>
+        <v>6451</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>22096</v>
+        <v>22234</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0355395945921573</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01744943022649444</v>
+        <v>0.01836285519719618</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0628992567083536</v>
+        <v>0.06329203842366382</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>27</v>
@@ -3698,19 +3698,19 @@
         <v>17250</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>11355</v>
+        <v>11691</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>24220</v>
+        <v>24493</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04872782799587723</v>
+        <v>0.04872782799587724</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03207531892429951</v>
+        <v>0.0330250792570049</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.06841766916613513</v>
+        <v>0.06918812602912942</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>38</v>
@@ -3719,19 +3719,19 @@
         <v>29735</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20601</v>
+        <v>21137</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>41359</v>
+        <v>41641</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.04215908883663554</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02920849318590603</v>
+        <v>0.02996805058304171</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.058639869365639</v>
+        <v>0.05903989292571912</v>
       </c>
     </row>
     <row r="49">
@@ -3748,19 +3748,19 @@
         <v>48658</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>37335</v>
+        <v>36983</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>63786</v>
+        <v>63491</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1385110648229178</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1062777939315269</v>
+        <v>0.1052754321411236</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1815743959683522</v>
+        <v>0.180733777349193</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>65</v>
@@ -3769,19 +3769,19 @@
         <v>35498</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>27946</v>
+        <v>27344</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>45026</v>
+        <v>44743</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.1002745881320669</v>
+        <v>0.100274588132067</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.07894072231626753</v>
+        <v>0.0772408909888838</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1271884565629419</v>
+        <v>0.126388923525151</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>118</v>
@@ -3790,19 +3790,19 @@
         <v>84156</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>68136</v>
+        <v>69128</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>99842</v>
+        <v>101245</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1193192496922558</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09660485496807088</v>
+        <v>0.098011968971683</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.141559164748036</v>
+        <v>0.1435488526145338</v>
       </c>
     </row>
     <row r="50">
@@ -3819,19 +3819,19 @@
         <v>259805</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>241647</v>
+        <v>244049</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>275390</v>
+        <v>276789</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.739566678571792</v>
+        <v>0.7395666785717919</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6878755011427556</v>
+        <v>0.6947147248974503</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7839311570208907</v>
+        <v>0.7879124736549484</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>431</v>
@@ -3840,19 +3840,19 @@
         <v>276922</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>263939</v>
+        <v>263247</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>287953</v>
+        <v>287720</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7822473256639703</v>
+        <v>0.7822473256639705</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7455745859261954</v>
+        <v>0.7436200380880598</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8134073654373971</v>
+        <v>0.8127508773363656</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>679</v>
@@ -3861,19 +3861,19 @@
         <v>536727</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>514517</v>
+        <v>517024</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>557503</v>
+        <v>557965</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7609891306264842</v>
+        <v>0.7609891306264843</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7294994461827238</v>
+        <v>0.7330528150117275</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7904453903570744</v>
+        <v>0.7911013032077077</v>
       </c>
     </row>
     <row r="51">
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>5902</v>
+        <v>6609</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.005846902366642985</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01771432327498421</v>
+        <v>0.01983647752054067</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>4849</v>
+        <v>4194</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.004242028299388492</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01486185490637456</v>
+        <v>0.01285492206333046</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>4</v>
@@ -4010,16 +4010,16 @@
         <v>949</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>8341</v>
+        <v>7666</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.005052908807287439</v>
+        <v>0.00505290880728744</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.001438394031191795</v>
+        <v>0.001438858675537322</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01264906860611194</v>
+        <v>0.01162497465702008</v>
       </c>
     </row>
     <row r="53">
@@ -4036,19 +4036,19 @@
         <v>3397</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>8901</v>
+        <v>11135</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01019529101697491</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.002802098075067492</v>
+        <v>0.002795419419625783</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02671464220312905</v>
+        <v>0.03341959814962905</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>4720</v>
+        <v>4801</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.004181619013953848</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01446902273685392</v>
+        <v>0.01471732573371603</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>5</v>
@@ -4078,19 +4078,19 @@
         <v>4761</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1506</v>
+        <v>1647</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>10445</v>
+        <v>11983</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.007220093812471563</v>
+        <v>0.007220093812471564</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.002283462248189786</v>
+        <v>0.002498147604455391</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01583940110203885</v>
+        <v>0.0181716886704227</v>
       </c>
     </row>
     <row r="54">
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>3011</v>
+        <v>3535</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.002167999080944578</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.009230053242158484</v>
+        <v>0.01083678097099935</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3535</v>
+        <v>4540</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.001072593384167239</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.005360293205601699</v>
+        <v>0.006884138891894979</v>
       </c>
     </row>
     <row r="55">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>3926</v>
+        <v>3600</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.002190565131834148</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.01203365166989257</v>
+        <v>0.01103451982690838</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1</v>
@@ -4207,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3594</v>
+        <v>3479</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.001083757686358911</v>
+        <v>0.001083757686358912</v>
       </c>
       <c r="V55" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.005450561838288731</v>
+        <v>0.005275385036712086</v>
       </c>
     </row>
     <row r="56">
@@ -4233,19 +4233,19 @@
         <v>3823</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>8757</v>
+        <v>10409</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01147443427897806</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.003035852744642</v>
+        <v>0.003029927236288757</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02628198495028265</v>
+        <v>0.03124190724532207</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>8</v>
@@ -4254,19 +4254,19 @@
         <v>5078</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2287</v>
+        <v>2364</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>9711</v>
+        <v>10145</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01556648405281418</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.007010967829724061</v>
+        <v>0.007245266317216753</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02976633872282387</v>
+        <v>0.03109543859184499</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>12</v>
@@ -4275,19 +4275,19 @@
         <v>8902</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5027</v>
+        <v>4912</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>16372</v>
+        <v>16610</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.01349893030099084</v>
+        <v>0.01349893030099085</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.007623226731526307</v>
+        <v>0.007448782301196781</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02482834662956433</v>
+        <v>0.02518856568949747</v>
       </c>
     </row>
     <row r="57">
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>8463</v>
+        <v>7764</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.007158946987874375</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02540178167831556</v>
+        <v>0.02330385425072526</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>4</v>
@@ -4325,19 +4325,19 @@
         <v>2574</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>5854</v>
+        <v>5896</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.00789045796208954</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.00209541496905642</v>
+        <v>0.002078684920130442</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.01794309255954933</v>
+        <v>0.01807294350848905</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>6</v>
@@ -4346,19 +4346,19 @@
         <v>4959</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>1879</v>
+        <v>1997</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>10522</v>
+        <v>10313</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.007520853890089051</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.002849826005812268</v>
+        <v>0.003028148248030217</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01595612525912729</v>
+        <v>0.0156396070712108</v>
       </c>
     </row>
     <row r="58">
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>8148</v>
+        <v>6889</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.005827863118643572</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.02445482882629245</v>
+        <v>0.02067771231548509</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>5</v>
@@ -4396,19 +4396,19 @@
         <v>3587</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>8476</v>
+        <v>7706</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.01099403200552879</v>
+        <v>0.01099403200552878</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.004144833705679596</v>
+        <v>0.004158705340739611</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.0259820176268116</v>
+        <v>0.02362096366557469</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>7</v>
@@ -4417,19 +4417,19 @@
         <v>5528</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>2264</v>
+        <v>2313</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>11434</v>
+        <v>10842</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.008383767601384155</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.003432997292101513</v>
+        <v>0.003507220035200161</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.01733968920663084</v>
+        <v>0.01644120879627587</v>
       </c>
     </row>
     <row r="59">
@@ -4446,19 +4446,19 @@
         <v>2815</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>8236</v>
+        <v>8056</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.008449243476968944</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.002200125036298969</v>
+        <v>0.002173821407010585</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.02471864338835982</v>
+        <v>0.0241783196390932</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>10</v>
@@ -4467,19 +4467,19 @@
         <v>6086</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>3216</v>
+        <v>3126</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>11446</v>
+        <v>10889</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01865339254441526</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.009856804709774335</v>
+        <v>0.00958167883251004</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.03508318953056353</v>
+        <v>0.03337825206561277</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>13</v>
@@ -4488,19 +4488,19 @@
         <v>8901</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>4894</v>
+        <v>4920</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>14729</v>
+        <v>15227</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01349763250858727</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.007420887386728327</v>
+        <v>0.00746175365723384</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.02233596570630803</v>
+        <v>0.02309078329944384</v>
       </c>
     </row>
     <row r="60">
@@ -4517,19 +4517,19 @@
         <v>14630</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>7682</v>
+        <v>7004</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>25072</v>
+        <v>24498</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.04390923407829034</v>
+        <v>0.04390923407829035</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.02305728391518609</v>
+        <v>0.0210222192747734</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.07524993701563727</v>
+        <v>0.07352854127802455</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>35</v>
@@ -4538,19 +4538,19 @@
         <v>20890</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>14651</v>
+        <v>15293</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>28464</v>
+        <v>28597</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.06403113037385971</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.04490923337719506</v>
+        <v>0.04687491733603781</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.08724809376842532</v>
+        <v>0.0876544747724215</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>47</v>
@@ -4559,19 +4559,19 @@
         <v>35519</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>26341</v>
+        <v>25682</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>47623</v>
+        <v>48684</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.05386431802330918</v>
+        <v>0.0538643180233092</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.03994511980091039</v>
+        <v>0.03894627360022537</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.07221865362991486</v>
+        <v>0.07382814146049407</v>
       </c>
     </row>
     <row r="61">
@@ -4588,19 +4588,19 @@
         <v>34376</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>25438</v>
+        <v>25999</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>45434</v>
+        <v>45142</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.1031740915967796</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.07634791639955901</v>
+        <v>0.07803193292316496</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.1363624748744681</v>
+        <v>0.1354889681674204</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>67</v>
@@ -4609,19 +4609,19 @@
         <v>34494</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>27222</v>
+        <v>26702</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>43222</v>
+        <v>43762</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.1057313676123827</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0834402587111204</v>
+        <v>0.08184639026112232</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.1324836423678631</v>
+        <v>0.134138710308821</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>110</v>
@@ -4630,19 +4630,19 @@
         <v>68870</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>56508</v>
+        <v>56668</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>83644</v>
+        <v>82851</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.1044392754060967</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.08569251742494946</v>
+        <v>0.08593535861839116</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.1268431556199166</v>
+        <v>0.1256413250169339</v>
       </c>
     </row>
     <row r="62">
@@ -4659,19 +4659,19 @@
         <v>267866</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>252671</v>
+        <v>253083</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>280408</v>
+        <v>279720</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.8039639930788472</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.7583575778159578</v>
+        <v>0.7595926751904889</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.841607519539463</v>
+        <v>0.8395416025822111</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>409</v>
@@ -4680,19 +4680,19 @@
         <v>249364</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>237858</v>
+        <v>237750</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>260768</v>
+        <v>260935</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.7643509239227887</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.7290821057366375</v>
+        <v>0.728751402177921</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.7993072702045261</v>
+        <v>0.7998192757585686</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>702</v>
@@ -4701,19 +4701,19 @@
         <v>517230</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>497790</v>
+        <v>498213</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>535682</v>
+        <v>536192</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.7843658685792575</v>
+        <v>0.7843658685792577</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.7548844428238773</v>
+        <v>0.7555265261447878</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.8123473526742696</v>
+        <v>0.8131201264907527</v>
       </c>
     </row>
     <row r="63">
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>5249</v>
+        <v>5888</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.007989825687498987</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.0244458384929948</v>
+        <v>0.02742259761887598</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>5980</v>
+        <v>5435</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.003936601146800153</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.01372117860374704</v>
+        <v>0.01247094479790116</v>
       </c>
     </row>
     <row r="65">
@@ -4871,16 +4871,16 @@
         <v>728</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>7584</v>
+        <v>7033</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01211203515335549</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.003389561651353125</v>
+        <v>0.003391655076025988</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.03532046478053347</v>
+        <v>0.03275341573082863</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>3876</v>
+        <v>3769</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.003011696236898374</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.01753053685771944</v>
+        <v>0.01704961235007101</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>4</v>
@@ -4910,19 +4910,19 @@
         <v>3267</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>8361</v>
+        <v>8144</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.007495449201727955</v>
+        <v>0.007495449201727957</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.002296441360368414</v>
+        <v>0.002304116013065078</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.01918377279275464</v>
+        <v>0.01868719070272036</v>
       </c>
     </row>
     <row r="66">
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>5986</v>
+        <v>4574</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.004309334454226951</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.02787602047052031</v>
+        <v>0.02130352650495716</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>1</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.001581551534228191</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.007970053340540023</v>
+        <v>0.007903355779440215</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>5010</v>
+        <v>5481</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.002925534969047068</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.01149480613255452</v>
+        <v>0.01257689880013765</v>
       </c>
     </row>
     <row r="69">
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>5522</v>
+        <v>6203</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.008626720435304359</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.02571683099708051</v>
+        <v>0.02888803576382574</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>2</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>4045</v>
+        <v>3850</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.00502665381517294</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.01829435614489459</v>
+        <v>0.01741201477598217</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>4</v>
@@ -5146,19 +5146,19 @@
         <v>2964</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>8060</v>
+        <v>8271</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.006800412960824902</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.002119702420659161</v>
+        <v>0.002111384678574987</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.01849491628447945</v>
+        <v>0.01897723869406515</v>
       </c>
     </row>
     <row r="70">
@@ -5175,19 +5175,19 @@
         <v>4797</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1731</v>
+        <v>1879</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>10979</v>
+        <v>10178</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.02234035912535075</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.008061793134531649</v>
+        <v>0.008749820145304427</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.05112846178200456</v>
+        <v>0.04739810645089299</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>11</v>
@@ -5196,19 +5196,19 @@
         <v>5661</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>3103</v>
+        <v>2918</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>10033</v>
+        <v>10266</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.02560713437384867</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.01403645387886882</v>
+        <v>0.01319950408052998</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.04537806774335079</v>
+        <v>0.04643301302869045</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>17</v>
@@ -5217,19 +5217,19 @@
         <v>10459</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>6144</v>
+        <v>6066</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>16097</v>
+        <v>16149</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.02399758847227835</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.01409884900508638</v>
+        <v>0.01391941158555792</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.03693499636502641</v>
+        <v>0.03705507912488674</v>
       </c>
     </row>
     <row r="71">
@@ -5246,19 +5246,19 @@
         <v>4220</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>1653</v>
+        <v>1636</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>9425</v>
+        <v>9169</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.01965321950197295</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.007699564992827325</v>
+        <v>0.007620978500077546</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.04389180587537748</v>
+        <v>0.04270266635739089</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>5</v>
@@ -5267,19 +5267,19 @@
         <v>2634</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>764</v>
+        <v>941</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>5848</v>
+        <v>5418</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.01191282595019576</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.003454880119625429</v>
+        <v>0.00425410417603834</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.02645235417654931</v>
+        <v>0.02450561308381226</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>10</v>
@@ -5288,19 +5288,19 @@
         <v>6854</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>3393</v>
+        <v>3427</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>12458</v>
+        <v>12919</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.01572653144570936</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.007786519300801802</v>
+        <v>0.007862591463407436</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.02858637969468038</v>
+        <v>0.02964436598622757</v>
       </c>
     </row>
     <row r="72">
@@ -5317,19 +5317,19 @@
         <v>8128</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>4169</v>
+        <v>4249</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>14403</v>
+        <v>14964</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.03785348188451665</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.01941438531658688</v>
+        <v>0.01978713883947847</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.06707446590647212</v>
+        <v>0.06968736424959655</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>14</v>
@@ -5338,19 +5338,19 @@
         <v>6919</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>3801</v>
+        <v>3853</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>11295</v>
+        <v>11010</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.03129681102443241</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.01719311608648395</v>
+        <v>0.0174284617624727</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.05108711535544313</v>
+        <v>0.04979998888761319</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>25</v>
@@ -5359,19 +5359,19 @@
         <v>15048</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>10088</v>
+        <v>9611</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>22522</v>
+        <v>21569</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.03452729427106732</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.02314699180374739</v>
+        <v>0.02205245289165314</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.0516785448860864</v>
+        <v>0.04949053300795718</v>
       </c>
     </row>
     <row r="73">
@@ -5388,19 +5388,19 @@
         <v>19382</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>13831</v>
+        <v>13485</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>26586</v>
+        <v>27283</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.09026509346660958</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.06440998814574474</v>
+        <v>0.06279845098417389</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.1238142619391166</v>
+        <v>0.1270611355966837</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>42</v>
@@ -5409,19 +5409,19 @@
         <v>19640</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>14343</v>
+        <v>14512</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>25914</v>
+        <v>26483</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.08883529077245365</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.06487319116848585</v>
+        <v>0.06564010437843575</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.1172092425878383</v>
+        <v>0.1197867878682421</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>74</v>
@@ -5430,19 +5430,19 @@
         <v>39023</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>31030</v>
+        <v>30957</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>48821</v>
+        <v>48196</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.08953975707067575</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.07120012308538073</v>
+        <v>0.07103307976733009</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.1120219654124611</v>
+        <v>0.110587617263087</v>
       </c>
     </row>
     <row r="74">
@@ -5459,19 +5459,19 @@
         <v>171105</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>160964</v>
+        <v>160702</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>180321</v>
+        <v>181275</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.7968499302911644</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.7496198040508344</v>
+        <v>0.7484018598017663</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.8397682566740391</v>
+        <v>0.844213346780366</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>344</v>
@@ -5480,19 +5480,19 @@
         <v>184106</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>175821</v>
+        <v>175694</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>191174</v>
+        <v>191640</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.83272803629277</v>
+        <v>0.8327280362927701</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.795252863631478</v>
+        <v>0.7946800792658869</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.8646973990249214</v>
+        <v>0.8668029951295445</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>584</v>
@@ -5501,19 +5501,19 @@
         <v>355211</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>343099</v>
+        <v>341928</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>367462</v>
+        <v>366859</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.8150508304618692</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.787257494281827</v>
+        <v>0.7845712451217487</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.8431612335622537</v>
+        <v>0.8417768432825303</v>
       </c>
     </row>
     <row r="75">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.002400736576772457</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.01347187446525959</v>
+        <v>0.01346369134957984</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>1</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>3089</v>
+        <v>3076</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.001464417694274821</v>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.007353500065951095</v>
+        <v>0.007324196348951104</v>
       </c>
     </row>
     <row r="77">
@@ -5671,16 +5671,16 @@
         <v>0</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>4909</v>
+        <v>6471</v>
       </c>
       <c r="G77" s="6" t="n">
-        <v>0.009758647641155719</v>
+        <v>0.009758647641155721</v>
       </c>
       <c r="H77" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.02996453288754544</v>
+        <v>0.03949945472080238</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>1</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>3298</v>
+        <v>3354</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.002566627250361463</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.01287134897125782</v>
+        <v>0.0130914693667764</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>3</v>
@@ -5710,19 +5710,19 @@
         <v>2256</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>6606</v>
+        <v>6054</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.005371609921247367</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.00156626223918377</v>
+        <v>0.001548623886686096</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.01572824251475703</v>
+        <v>0.01441346108712852</v>
       </c>
     </row>
     <row r="78">
@@ -5836,16 +5836,16 @@
         <v>0</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>4973</v>
+        <v>4642</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.006130354868811555</v>
+        <v>0.006130354868811556</v>
       </c>
       <c r="H80" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.03035706221079818</v>
+        <v>0.02833761359057878</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>2</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>2872</v>
+        <v>2832</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.003134681012276222</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.01121031732268886</v>
+        <v>0.01105322299768109</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>3</v>
@@ -5878,16 +5878,16 @@
         <v>400</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>5800</v>
+        <v>6135</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.004303033269169585</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.000952693234579924</v>
+        <v>0.0009534530217803358</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.01380902303130472</v>
+        <v>0.01460690853996365</v>
       </c>
     </row>
     <row r="81">
@@ -5907,16 +5907,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>5550</v>
+        <v>5149</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>0.009686962051154503</v>
+        <v>0.009686962051154505</v>
       </c>
       <c r="H81" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.03387874410023733</v>
+        <v>0.03143196107418517</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>1</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>3247</v>
+        <v>3616</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.00256477219804942</v>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.01267206385874035</v>
+        <v>0.01411161028775946</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>3</v>
@@ -5946,19 +5946,19 @@
         <v>2244</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>6360</v>
+        <v>6646</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.005342520039572563</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.00157710172227847</v>
+        <v>0.00153835195632062</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.01514137275645196</v>
+        <v>0.01582205257214827</v>
       </c>
     </row>
     <row r="82">
@@ -5975,19 +5975,19 @@
         <v>4280</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1609</v>
+        <v>1579</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>9339</v>
+        <v>9376</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.02612810630922184</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.009824752664281051</v>
+        <v>0.009640177277589639</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.05700547512390003</v>
+        <v>0.05723461076886951</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>2</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>3138</v>
+        <v>3125</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.003500843750741069</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.01224813306696566</v>
+        <v>0.01219760452531151</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>7</v>
@@ -6017,19 +6017,19 @@
         <v>5177</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>2106</v>
+        <v>2184</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>10653</v>
+        <v>10568</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.01232577414823605</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.005013601555295</v>
+        <v>0.005200400478838181</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.02536125918563164</v>
+        <v>0.0251599111429844</v>
       </c>
     </row>
     <row r="83">
@@ -6046,19 +6046,19 @@
         <v>2073</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>5660</v>
+        <v>6247</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.01265540604019556</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.003754811116953896</v>
+        <v>0.003757228218041521</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.03454952755992952</v>
+        <v>0.03813134499670486</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>1</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.001818991587351486</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.009130341030260237</v>
+        <v>0.009145044697375185</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>4</v>
@@ -6088,19 +6088,19 @@
         <v>2539</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>5884</v>
+        <v>6340</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.006045335938887504</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.001654893113579154</v>
+        <v>0.001752293715199028</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.01400857341728645</v>
+        <v>0.01509417198320675</v>
       </c>
     </row>
     <row r="84">
@@ -6117,19 +6117,19 @@
         <v>5636</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>2703</v>
+        <v>2586</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>10861</v>
+        <v>10435</v>
       </c>
       <c r="G84" s="6" t="n">
-        <v>0.03440484602039702</v>
+        <v>0.03440484602039703</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.01649931940528131</v>
+        <v>0.01578790411721977</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.06630077630418553</v>
+        <v>0.0637002863789189</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>17</v>
@@ -6138,19 +6138,19 @@
         <v>7475</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>4555</v>
+        <v>4470</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>11832</v>
+        <v>12022</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>0.02917590716878166</v>
+        <v>0.02917590716878167</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.01777973679697976</v>
+        <v>0.01744526901311187</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.04617909741096047</v>
+        <v>0.04692050442252043</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>26</v>
@@ -6159,19 +6159,19 @@
         <v>13112</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>8404</v>
+        <v>8850</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>18794</v>
+        <v>20434</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.03121526218572195</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.02000707652744728</v>
+        <v>0.02107002453153411</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.04474281212270995</v>
+        <v>0.04864842704366783</v>
       </c>
     </row>
     <row r="85">
@@ -6188,19 +6188,19 @@
         <v>15397</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>10382</v>
+        <v>10163</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>21653</v>
+        <v>21956</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>0.09398429402979296</v>
+        <v>0.09398429402979297</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.06337436467763628</v>
+        <v>0.06203676215694221</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.1321742084912646</v>
+        <v>0.1340274430015837</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>46</v>
@@ -6209,19 +6209,19 @@
         <v>22656</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>16826</v>
+        <v>16747</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>31481</v>
+        <v>30537</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.08842319209676587</v>
+        <v>0.08842319209676588</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.06566962448502009</v>
+        <v>0.06536366255304243</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.1228687282410997</v>
+        <v>0.1191847595259955</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>72</v>
@@ -6230,19 +6230,19 @@
         <v>38052</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>30384</v>
+        <v>30144</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>48430</v>
+        <v>47669</v>
       </c>
       <c r="U85" s="6" t="n">
-        <v>0.09059209509002457</v>
+        <v>0.09059209509002455</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.0723373150179077</v>
+        <v>0.0717650274612126</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.1152984954401734</v>
+        <v>0.1134884192993676</v>
       </c>
     </row>
     <row r="86">
@@ -6259,19 +6259,19 @@
         <v>132244</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>123413</v>
+        <v>123610</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>139587</v>
+        <v>140089</v>
       </c>
       <c r="G86" s="6" t="n">
-        <v>0.8072513830392706</v>
+        <v>0.8072513830392709</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.7533454218164899</v>
+        <v>0.7545454334794237</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.8520762632143414</v>
+        <v>0.8551406586749644</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>427</v>
@@ -6280,19 +6280,19 @@
         <v>221991</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>212735</v>
+        <v>213167</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>228625</v>
+        <v>229082</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.8664142483589004</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.8302884179107498</v>
+        <v>0.8319733224605063</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.8923051732172114</v>
+        <v>0.894092036954364</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>623</v>
@@ -6301,19 +6301,19 @@
         <v>354235</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>343326</v>
+        <v>343112</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>365670</v>
+        <v>364916</v>
       </c>
       <c r="U86" s="6" t="n">
-        <v>0.8433399517128658</v>
+        <v>0.8433399517128657</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.8173699120383996</v>
+        <v>0.8168592346914396</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.8705634059137047</v>
+        <v>0.8687700192703877</v>
       </c>
     </row>
     <row r="87">
@@ -6405,19 +6405,19 @@
         <v>11575</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>5826</v>
+        <v>5832</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>21862</v>
+        <v>20989</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.00642662697659929</v>
+        <v>0.006426626976599288</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.003234914387824565</v>
+        <v>0.003237987798022316</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.01213809821282919</v>
+        <v>0.01165352612565179</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>10</v>
@@ -6426,19 +6426,19 @@
         <v>7616</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>3833</v>
+        <v>3567</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>14552</v>
+        <v>13947</v>
       </c>
       <c r="N88" s="6" t="n">
         <v>0.00410217965283144</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.002064844115784344</v>
+        <v>0.001921397103586522</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.007838552708586346</v>
+        <v>0.007512788454786251</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>20</v>
@@ -6447,19 +6447,19 @@
         <v>19190</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>11229</v>
+        <v>11943</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>28959</v>
+        <v>30101</v>
       </c>
       <c r="U88" s="6" t="n">
         <v>0.005246797469960466</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.003069958349658879</v>
+        <v>0.003265361881586642</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.007917672659002921</v>
+        <v>0.008229900395273368</v>
       </c>
     </row>
     <row r="89">
@@ -6476,19 +6476,19 @@
         <v>15512</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>8738</v>
+        <v>8962</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>27407</v>
+        <v>25782</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>0.008612774320518359</v>
+        <v>0.008612774320518357</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.004851661901611043</v>
+        <v>0.004976108613325429</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.01521692527956225</v>
+        <v>0.01431488830471644</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>14</v>
@@ -6497,19 +6497,19 @@
         <v>10341</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>6084</v>
+        <v>5708</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>17329</v>
+        <v>17895</v>
       </c>
       <c r="N89" s="6" t="n">
-        <v>0.005570328789531779</v>
+        <v>0.005570328789531778</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.003276927103138491</v>
+        <v>0.003074689269911397</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.009334073321953823</v>
+        <v>0.009639043762309221</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>28</v>
@@ -6518,19 +6518,19 @@
         <v>25853</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>16949</v>
+        <v>17039</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>37203</v>
+        <v>37250</v>
       </c>
       <c r="U89" s="6" t="n">
-        <v>0.007068507443357715</v>
+        <v>0.007068507443357716</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.004633951015379668</v>
+        <v>0.004658634048557942</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.01017147781153695</v>
+        <v>0.0101845029096926</v>
       </c>
     </row>
     <row r="90">
@@ -6547,19 +6547,19 @@
         <v>3949</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>11001</v>
+        <v>11445</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.002192688673708116</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.0006179170151855502</v>
+        <v>0.0006197696651494138</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.006108246093806203</v>
+        <v>0.006354485221206916</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>3</v>
@@ -6568,19 +6568,19 @@
         <v>2597</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>7782</v>
+        <v>7634</v>
       </c>
       <c r="N90" s="6" t="n">
-        <v>0.001398680921519985</v>
+        <v>0.001398680921519984</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.0003734287593111468</v>
+        <v>0.0003743937751236325</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.004191906353727894</v>
+        <v>0.00411208880903217</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>6</v>
@@ -6589,19 +6589,19 @@
         <v>6546</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>2523</v>
+        <v>2355</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>14081</v>
+        <v>14183</v>
       </c>
       <c r="U90" s="6" t="n">
         <v>0.001789670818688277</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.0006897110637315729</v>
+        <v>0.0006439644846262114</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.003849862968897394</v>
+        <v>0.00387782569483649</v>
       </c>
     </row>
     <row r="91">
@@ -6631,19 +6631,19 @@
         <v>2610</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>7738</v>
+        <v>6875</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0.001405654548747616</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.0003854832114416919</v>
+        <v>0.000382260566494781</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.004167833411401389</v>
+        <v>0.00370319442663664</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>3</v>
@@ -6652,19 +6652,19 @@
         <v>2610</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>7188</v>
+        <v>7180</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.0007134739926329046</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.0001947983949463639</v>
+        <v>0.0001942701152706735</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.001965381724987512</v>
+        <v>0.001963179639443967</v>
       </c>
     </row>
     <row r="92">
@@ -6681,19 +6681,19 @@
         <v>15378</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>8097</v>
+        <v>9036</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>25740</v>
+        <v>25537</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>0.008538049858101244</v>
+        <v>0.008538049858101242</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.004495753849352756</v>
+        <v>0.005016891594031484</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.01429153180289782</v>
+        <v>0.01417849654706243</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>24</v>
@@ -6702,19 +6702,19 @@
         <v>16609</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>10746</v>
+        <v>11073</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>25844</v>
+        <v>25851</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>0.008946510307096761</v>
+        <v>0.008946510307096759</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.005788608205491506</v>
+        <v>0.005964645691938415</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.01392087458732235</v>
+        <v>0.01392492343013877</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>38</v>
@@ -6723,19 +6723,19 @@
         <v>31987</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>22739</v>
+        <v>23054</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>45190</v>
+        <v>45171</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.008745373846514406</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.006216993606853706</v>
+        <v>0.006303124796127984</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.01235525641153913</v>
+        <v>0.01235007081456001</v>
       </c>
     </row>
     <row r="93">
@@ -6752,19 +6752,19 @@
         <v>19203</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>11080</v>
+        <v>10687</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>38977</v>
+        <v>34911</v>
       </c>
       <c r="G93" s="6" t="n">
         <v>0.01066198117296705</v>
       </c>
       <c r="H93" s="6" t="n">
-        <v>0.00615165743796199</v>
+        <v>0.005933797826237611</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.02164092461158644</v>
+        <v>0.01938345115451255</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>14</v>
@@ -6773,19 +6773,19 @@
         <v>10439</v>
       </c>
       <c r="L93" s="5" t="n">
-        <v>5821</v>
+        <v>5789</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>16919</v>
+        <v>17247</v>
       </c>
       <c r="N93" s="6" t="n">
-        <v>0.005623238626210451</v>
+        <v>0.00562323862621045</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>0.003135373239519023</v>
+        <v>0.003118296540367353</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.009113741477720171</v>
+        <v>0.009290074641065115</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>29</v>
@@ -6794,19 +6794,19 @@
         <v>29642</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>20025</v>
+        <v>19714</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>47138</v>
+        <v>46653</v>
       </c>
       <c r="U93" s="6" t="n">
         <v>0.008104445421464847</v>
       </c>
       <c r="V93" s="6" t="n">
-        <v>0.005475031250866964</v>
+        <v>0.005389890883228743</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.01288789102564847</v>
+        <v>0.01275524087728722</v>
       </c>
     </row>
     <row r="94">
@@ -6823,19 +6823,19 @@
         <v>34281</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>21899</v>
+        <v>21158</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>54711</v>
+        <v>54739</v>
       </c>
       <c r="G94" s="6" t="n">
         <v>0.01903344387127937</v>
       </c>
       <c r="H94" s="6" t="n">
-        <v>0.01215893527400696</v>
+        <v>0.01174768550971177</v>
       </c>
       <c r="I94" s="6" t="n">
-        <v>0.03037694367475076</v>
+        <v>0.03039242727263511</v>
       </c>
       <c r="J94" s="5" t="n">
         <v>51</v>
@@ -6844,19 +6844,19 @@
         <v>45511</v>
       </c>
       <c r="L94" s="5" t="n">
-        <v>33626</v>
+        <v>33401</v>
       </c>
       <c r="M94" s="5" t="n">
-        <v>64423</v>
+        <v>63907</v>
       </c>
       <c r="N94" s="6" t="n">
-        <v>0.02451482050059597</v>
+        <v>0.02451482050059596</v>
       </c>
       <c r="O94" s="6" t="n">
-        <v>0.01811301277028087</v>
+        <v>0.01799132182537935</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>0.03470157319888302</v>
+        <v>0.03442395681715574</v>
       </c>
       <c r="Q94" s="5" t="n">
         <v>78</v>
@@ -6865,19 +6865,19 @@
         <v>79792</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>61193</v>
+        <v>61620</v>
       </c>
       <c r="T94" s="5" t="n">
-        <v>104646</v>
+        <v>103823</v>
       </c>
       <c r="U94" s="6" t="n">
         <v>0.02181564926614512</v>
       </c>
       <c r="V94" s="6" t="n">
-        <v>0.01673069456983009</v>
+        <v>0.01684743079337749</v>
       </c>
       <c r="W94" s="6" t="n">
-        <v>0.02861099254514637</v>
+        <v>0.02838593280354526</v>
       </c>
     </row>
     <row r="95">
@@ -6894,19 +6894,19 @@
         <v>34404</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>23699</v>
+        <v>23017</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>50125</v>
+        <v>50229</v>
       </c>
       <c r="G95" s="6" t="n">
         <v>0.01910197867140283</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.01315807722360166</v>
+        <v>0.0127794263155575</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.02783056999923603</v>
+        <v>0.0278881712663281</v>
       </c>
       <c r="J95" s="5" t="n">
         <v>30</v>
@@ -6915,19 +6915,19 @@
         <v>18881</v>
       </c>
       <c r="L95" s="5" t="n">
-        <v>13065</v>
+        <v>12836</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>26910</v>
+        <v>26408</v>
       </c>
       <c r="N95" s="6" t="n">
         <v>0.01017058160085896</v>
       </c>
       <c r="O95" s="6" t="n">
-        <v>0.007037408727010906</v>
+        <v>0.006914111470658344</v>
       </c>
       <c r="P95" s="6" t="n">
-        <v>0.01449508104707607</v>
+        <v>0.01422457181854747</v>
       </c>
       <c r="Q95" s="5" t="n">
         <v>61</v>
@@ -6936,19 +6936,19 @@
         <v>53286</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>40099</v>
+        <v>40091</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>70459</v>
+        <v>70494</v>
       </c>
       <c r="U95" s="6" t="n">
         <v>0.01456863188759435</v>
       </c>
       <c r="V95" s="6" t="n">
-        <v>0.0109632522521954</v>
+        <v>0.01096104483074955</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.01926408081270484</v>
+        <v>0.01927356657886981</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>99664</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>78679</v>
+        <v>75620</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>123987</v>
+        <v>124136</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>0.055335943644562</v>
+        <v>0.05533594364456199</v>
       </c>
       <c r="H96" s="6" t="n">
-        <v>0.04368474302995937</v>
+        <v>0.04198629949298947</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.06884031831228925</v>
+        <v>0.06892333814792558</v>
       </c>
       <c r="J96" s="5" t="n">
         <v>132</v>
@@ -6986,19 +6986,19 @@
         <v>87540</v>
       </c>
       <c r="L96" s="5" t="n">
-        <v>73224</v>
+        <v>72874</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>104866</v>
+        <v>104012</v>
       </c>
       <c r="N96" s="6" t="n">
-        <v>0.04715386721285253</v>
+        <v>0.04715386721285252</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>0.03944222925549803</v>
+        <v>0.0392537784100815</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>0.05648626101085061</v>
+        <v>0.0560265512395626</v>
       </c>
       <c r="Q96" s="5" t="n">
         <v>210</v>
@@ -7007,19 +7007,19 @@
         <v>187204</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>160015</v>
+        <v>158571</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>220017</v>
+        <v>218531</v>
       </c>
       <c r="U96" s="6" t="n">
         <v>0.05118293268965809</v>
       </c>
       <c r="V96" s="6" t="n">
-        <v>0.04374925028907731</v>
+        <v>0.04335432983501972</v>
       </c>
       <c r="W96" s="6" t="n">
-        <v>0.06015424560624219</v>
+        <v>0.05974787622981564</v>
       </c>
     </row>
     <row r="97">
@@ -7036,19 +7036,19 @@
         <v>201737</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>176976</v>
+        <v>175511</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>230625</v>
+        <v>231632</v>
       </c>
       <c r="G97" s="6" t="n">
         <v>0.1120092047019467</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.09826143649984029</v>
+        <v>0.0974476789595223</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.1280487449998928</v>
+        <v>0.1286077839668869</v>
       </c>
       <c r="J97" s="5" t="n">
         <v>314</v>
@@ -7057,19 +7057,19 @@
         <v>197074</v>
       </c>
       <c r="L97" s="5" t="n">
-        <v>175538</v>
+        <v>172474</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>221418</v>
+        <v>218833</v>
       </c>
       <c r="N97" s="6" t="n">
-        <v>0.1061545631277714</v>
+        <v>0.1061545631277713</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>0.0945539750604983</v>
+        <v>0.09290357538835858</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.1192674965700399</v>
+        <v>0.117875148013496</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>541</v>
@@ -7078,19 +7078,19 @@
         <v>398811</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>366191</v>
+        <v>367773</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>437463</v>
+        <v>438530</v>
       </c>
       <c r="U97" s="6" t="n">
         <v>0.1090375396487634</v>
       </c>
       <c r="V97" s="6" t="n">
-        <v>0.1001191969681145</v>
+        <v>0.1005515017529946</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.1196052151610037</v>
+        <v>0.1198970939134655</v>
       </c>
     </row>
     <row r="98">
@@ -7107,19 +7107,19 @@
         <v>1365372</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>1324638</v>
+        <v>1322310</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>1404970</v>
+        <v>1405828</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>0.7580873081089151</v>
+        <v>0.758087308108915</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.7354709153955055</v>
+        <v>0.7341779410043384</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.7800727758517279</v>
+        <v>0.7805492456586409</v>
       </c>
       <c r="J98" s="5" t="n">
         <v>2148</v>
@@ -7128,19 +7128,19 @@
         <v>1457263</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>1426212</v>
+        <v>1424424</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>1488793</v>
+        <v>1489452</v>
       </c>
       <c r="N98" s="6" t="n">
-        <v>0.7849595747119833</v>
+        <v>0.7849595747119832</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0.7682340038576638</v>
+        <v>0.767270846826256</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>0.8019436879044435</v>
+        <v>0.8022984401502752</v>
       </c>
       <c r="Q98" s="5" t="n">
         <v>3492</v>
@@ -7149,19 +7149,19 @@
         <v>2822634</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>2762928</v>
+        <v>2761087</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>2869835</v>
+        <v>2867546</v>
       </c>
       <c r="U98" s="6" t="n">
         <v>0.7717269775152205</v>
       </c>
       <c r="V98" s="6" t="n">
-        <v>0.7554029725988942</v>
+        <v>0.7548995677315962</v>
       </c>
       <c r="W98" s="6" t="n">
-        <v>0.7846319552925275</v>
+        <v>0.7840063236589389</v>
       </c>
     </row>
     <row r="99">
